--- a/record.xlsx
+++ b/record.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="164">
   <si>
     <t>Problem</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,10 +133,6 @@
   </si>
   <si>
     <t>Easy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary search</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -322,6 +318,354 @@
   </si>
   <si>
     <t>Tree, Depth First Search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary search， Hash Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>median Of Two Sorted Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">longest Palindromic substring </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zigzag Conversion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverse integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palindrome Partitioning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backtracking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Number II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String To Integer(atoi)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palindrome Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regular Expression Matching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer to Roman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raman To Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3Sum Closest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Nth Node From End of List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge K Sorted Lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swap Nodes in Pairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverse Nodes in k-Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implement strStr()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Divide Two Integers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Substring with Concatenation of All Words</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Valid Parentheses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search for a Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search Insert Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valid Sudoku</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sudoku Solver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count and Say</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combiantion Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combiantion Sum II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First Missing Positive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiply Strings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wildcard Matching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump Game II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Permutations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Permutations II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pow(x, n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,7 +744,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -429,6 +773,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -714,8 +1061,8 @@
   <dimension ref="A1:U151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B130" sqref="B130"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -723,7 +1070,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -799,207 +1146,408 @@
       <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>50</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
       <c r="E3" t="s">
-        <v>44</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:21" ht="28.5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
       <c r="E4" t="s">
-        <v>51</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="1">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="1">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="1">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="1">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="1">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="1">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>32</v>
       </c>
+      <c r="B33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>48</v>
       </c>
-      <c r="D34" t="s">
-        <v>49</v>
-      </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G34" s="4"/>
     </row>
@@ -1007,87 +1555,171 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
+      <c r="B35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>35</v>
       </c>
+      <c r="B36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>36</v>
       </c>
+      <c r="B37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>37</v>
       </c>
+      <c r="B38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>38</v>
       </c>
+      <c r="B39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>39</v>
       </c>
+      <c r="B40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>40</v>
       </c>
+      <c r="B41" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>41</v>
       </c>
+      <c r="B42" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>42</v>
       </c>
+      <c r="B43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>43</v>
       </c>
+      <c r="B44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>44</v>
       </c>
+      <c r="B45" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>45</v>
       </c>
+      <c r="B46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>46</v>
       </c>
+      <c r="B47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>47</v>
       </c>
+      <c r="B48" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>36</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="F49" s="6"/>
     </row>
@@ -1096,16 +1728,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>42</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>43</v>
-      </c>
-      <c r="E50" t="s">
-        <v>44</v>
       </c>
       <c r="F50" s="3"/>
     </row>
@@ -1113,6 +1745,12 @@
       <c r="A51" s="1">
         <v>50</v>
       </c>
+      <c r="B51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
@@ -1269,16 +1907,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" t="s">
         <v>45</v>
       </c>
-      <c r="C82" t="s">
-        <v>42</v>
-      </c>
-      <c r="D82" t="s">
-        <v>46</v>
-      </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G82" s="4"/>
     </row>
@@ -1361,7 +1999,7 @@
         <v>22</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F96" s="4"/>
     </row>
@@ -1379,7 +2017,7 @@
         <v>5</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F97" s="3"/>
     </row>
@@ -1402,7 +2040,7 @@
         <v>27</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F99" s="3"/>
     </row>
@@ -1441,16 +2079,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>52</v>
+      </c>
+      <c r="C106" t="s">
         <v>53</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>54</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>55</v>
-      </c>
-      <c r="E106" t="s">
-        <v>56</v>
       </c>
       <c r="G106" s="8"/>
     </row>
@@ -1459,16 +2097,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>56</v>
+      </c>
+      <c r="C107" t="s">
         <v>57</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>58</v>
       </c>
-      <c r="D107" t="s">
-        <v>59</v>
-      </c>
       <c r="E107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G107" s="9"/>
     </row>
@@ -1487,16 +2125,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>59</v>
+      </c>
+      <c r="C110" t="s">
         <v>60</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>61</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>62</v>
-      </c>
-      <c r="E110" t="s">
-        <v>63</v>
       </c>
       <c r="G110" s="4"/>
     </row>
@@ -1545,16 +2183,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C119" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D119" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E119" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G119" s="9"/>
     </row>
@@ -1563,16 +2201,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C120" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D120" t="s">
+        <v>68</v>
+      </c>
+      <c r="E120" t="s">
         <v>69</v>
-      </c>
-      <c r="E120" t="s">
-        <v>70</v>
       </c>
       <c r="G120" s="4"/>
     </row>
@@ -1606,16 +2244,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>70</v>
+      </c>
+      <c r="C126" t="s">
         <v>71</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>72</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>73</v>
-      </c>
-      <c r="E126" t="s">
-        <v>74</v>
       </c>
       <c r="G126" s="4"/>
     </row>
@@ -1629,95 +2267,147 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:11">
       <c r="A129" s="1">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:11">
       <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="B130" t="s">
+        <v>74</v>
+      </c>
+      <c r="C130" t="s">
         <v>75</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>76</v>
       </c>
-      <c r="D130" t="s">
-        <v>77</v>
-      </c>
       <c r="E130" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G130" s="4"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:11">
       <c r="A131" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:11">
       <c r="A132" s="1">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="B132" t="s">
+        <v>90</v>
+      </c>
+      <c r="C132" t="s">
+        <v>91</v>
+      </c>
+      <c r="D132" t="s">
+        <v>92</v>
+      </c>
+      <c r="E132" t="s">
+        <v>96</v>
+      </c>
+      <c r="K132" s="8"/>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="1">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:11">
       <c r="A134" s="1">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:11">
       <c r="A135" s="1">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:11">
       <c r="A136" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:11">
       <c r="A137" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="B137" t="s">
+        <v>93</v>
+      </c>
+      <c r="C137" t="s">
+        <v>94</v>
+      </c>
+      <c r="D137" t="s">
+        <v>95</v>
+      </c>
+      <c r="E137" t="s">
+        <v>96</v>
+      </c>
+      <c r="K137" s="9"/>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="1">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="B138" t="s">
+        <v>97</v>
+      </c>
+      <c r="C138" t="s">
+        <v>98</v>
+      </c>
+      <c r="D138" t="s">
+        <v>99</v>
+      </c>
+      <c r="E138" t="s">
+        <v>100</v>
+      </c>
+      <c r="K138" s="3"/>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="1">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:11">
       <c r="A140" s="1">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="B140" t="s">
+        <v>101</v>
+      </c>
+      <c r="C140" t="s">
+        <v>102</v>
+      </c>
+      <c r="D140" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140" t="s">
+        <v>103</v>
+      </c>
+      <c r="K140" s="3"/>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:11">
       <c r="A142" s="1">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:11">
       <c r="A143" s="1">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:11">
       <c r="A144" s="1">
         <v>143</v>
       </c>
